--- a/nodes_source_analyses/energy/energy_power_wind_turbine_offshore.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_wind_turbine_offshore.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="2260" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -462,9 +470,6 @@
     <t>Output to csv</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
@@ -714,18 +719,22 @@
   <si>
     <t>http://refman.et-model.com/publications/1981</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -857,11 +866,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1502,14 +1506,14 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1518,7 +1522,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1542,7 +1546,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1562,15 +1566,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1595,7 +1599,7 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1605,7 +1609,7 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1618,10 +1622,10 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1659,37 +1663,37 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1947,80 +1951,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3924300</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2444,7 +2383,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2883,34 +2822,34 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1">
+    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -2919,7 +2858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>111</v>
@@ -2928,7 +2867,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -2937,29 +2876,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="64" t="s">
         <v>113</v>
       </c>
       <c r="C9" s="65"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="66" t="s">
         <v>114</v>
@@ -2968,33 +2907,33 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="66"/>
       <c r="C12" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="66"/>
       <c r="C13" s="56" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="66"/>
       <c r="C14" s="67" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="66" t="s">
         <v>119</v>
@@ -3003,49 +2942,49 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="66"/>
       <c r="C17" s="70" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="66"/>
       <c r="C18" s="71" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="66"/>
       <c r="C19" s="72" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="73"/>
       <c r="C20" s="74" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="73"/>
       <c r="C21" s="75" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="73"/>
       <c r="C22" s="76" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="73"/>
       <c r="C23" s="77" t="s">
         <v>126</v>
@@ -3054,50 +2993,45 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="36" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="36" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="36" customWidth="1"/>
     <col min="7" max="7" width="45" style="36" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="36" customWidth="1"/>
-    <col min="10" max="10" width="2.625" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="36"/>
+    <col min="8" max="8" width="5.140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="137" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="C2" s="138"/>
       <c r="D2" s="138"/>
@@ -3106,7 +3040,7 @@
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="140"/>
       <c r="C3" s="141"/>
       <c r="D3" s="141"/>
@@ -3115,7 +3049,7 @@
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="140"/>
       <c r="C4" s="141"/>
       <c r="D4" s="141"/>
@@ -3124,7 +3058,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="143"/>
       <c r="C5" s="144"/>
       <c r="D5" s="144"/>
@@ -3133,10 +3067,10 @@
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -3147,7 +3081,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="2:11" s="24" customFormat="1">
+    <row r="8" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="87"/>
       <c r="C8" s="16" t="s">
         <v>37</v>
@@ -3168,7 +3102,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="2:11" s="24" customFormat="1">
+    <row r="9" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="14"/>
       <c r="D9" s="32"/>
@@ -3179,7 +3113,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="2:11" s="24" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
       <c r="C10" s="14" t="s">
         <v>104</v>
@@ -3192,7 +3126,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="2:11" s="24" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:11" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="40" t="s">
         <v>38</v>
@@ -3211,7 +3145,7 @@
       </c>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41"/>
       <c r="C12" s="40" t="s">
         <v>40</v>
@@ -3231,7 +3165,7 @@
       <c r="J12" s="85"/>
       <c r="K12" s="37"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41"/>
       <c r="C13" s="40" t="s">
         <v>41</v>
@@ -3251,7 +3185,7 @@
       <c r="J13" s="85"/>
       <c r="K13" s="37"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="41"/>
       <c r="C14" s="40" t="s">
         <v>43</v>
@@ -3271,7 +3205,7 @@
       <c r="J14" s="85"/>
       <c r="K14" s="37"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
       <c r="C15" s="40" t="s">
         <v>10</v>
@@ -3291,7 +3225,7 @@
       <c r="J15" s="85"/>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41"/>
       <c r="C16" s="40" t="s">
         <v>46</v>
@@ -3311,7 +3245,7 @@
       <c r="J16" s="85"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
       <c r="C17" s="40" t="s">
         <v>47</v>
@@ -3331,13 +3265,13 @@
       <c r="J17" s="85"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41"/>
       <c r="C18" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="42">
         <f>'Research data'!G6</f>
@@ -3353,13 +3287,13 @@
       </c>
       <c r="J18" s="85"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
       <c r="C19" s="40" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="42">
         <v>0</v>
@@ -3374,7 +3308,7 @@
       </c>
       <c r="J19" s="85"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="41"/>
       <c r="C20" s="40" t="s">
         <v>50</v>
@@ -3395,7 +3329,7 @@
       </c>
       <c r="J20" s="85"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="41"/>
       <c r="C21" s="40" t="s">
         <v>66</v>
@@ -3416,7 +3350,7 @@
       </c>
       <c r="J21" s="85"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="41"/>
       <c r="C22" s="40" t="s">
         <v>51</v>
@@ -3437,7 +3371,7 @@
       </c>
       <c r="J22" s="85"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="41"/>
       <c r="C23" s="40" t="s">
         <v>52</v>
@@ -3458,7 +3392,7 @@
       </c>
       <c r="J23" s="85"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
       <c r="C24" s="40" t="s">
         <v>53</v>
@@ -3479,7 +3413,7 @@
       </c>
       <c r="J24" s="85"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="41"/>
       <c r="C25" s="37"/>
       <c r="D25" s="90"/>
@@ -3490,10 +3424,10 @@
       <c r="I25" s="37"/>
       <c r="J25" s="85"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="41"/>
       <c r="C26" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="90"/>
       <c r="E26" s="89"/>
@@ -3503,7 +3437,7 @@
       <c r="I26" s="37"/>
       <c r="J26" s="85"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="41"/>
       <c r="C27" s="40" t="s">
         <v>54</v>
@@ -3525,7 +3459,7 @@
       </c>
       <c r="J27" s="85"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="41"/>
       <c r="C28" s="40" t="s">
         <v>55</v>
@@ -3546,7 +3480,7 @@
       </c>
       <c r="J28" s="85"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="41"/>
       <c r="C29" s="40" t="s">
         <v>12</v>
@@ -3568,7 +3502,7 @@
       </c>
       <c r="J29" s="85"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="41"/>
       <c r="C30" s="40" t="s">
         <v>56</v>
@@ -3589,7 +3523,7 @@
       </c>
       <c r="J30" s="85"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="41"/>
       <c r="C31" s="40" t="s">
         <v>57</v>
@@ -3611,7 +3545,7 @@
       </c>
       <c r="J31" s="85"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41"/>
       <c r="C32" s="40" t="s">
         <v>58</v>
@@ -3632,7 +3566,7 @@
       </c>
       <c r="J32" s="85"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="41"/>
       <c r="C33" s="40" t="s">
         <v>59</v>
@@ -3653,7 +3587,7 @@
       </c>
       <c r="J33" s="85"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="41"/>
       <c r="C34" s="40" t="s">
         <v>62</v>
@@ -3674,7 +3608,7 @@
       </c>
       <c r="J34" s="85"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="41"/>
       <c r="C35" s="40" t="s">
         <v>45</v>
@@ -3693,7 +3627,7 @@
       </c>
       <c r="J35" s="85"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="41"/>
       <c r="C36" s="37"/>
       <c r="D36" s="90"/>
@@ -3704,7 +3638,7 @@
       <c r="I36" s="37"/>
       <c r="J36" s="85"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="41"/>
       <c r="C37" s="14" t="s">
         <v>7</v>
@@ -3717,7 +3651,7 @@
       <c r="I37" s="37"/>
       <c r="J37" s="85"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="41"/>
       <c r="C38" s="40" t="s">
         <v>44</v>
@@ -3739,7 +3673,7 @@
       </c>
       <c r="J38" s="85"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
       <c r="C39" s="40" t="s">
         <v>60</v>
@@ -3761,7 +3695,7 @@
       </c>
       <c r="J39" s="85"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="41"/>
       <c r="C40" s="40" t="s">
         <v>61</v>
@@ -3783,7 +3717,7 @@
       </c>
       <c r="J40" s="85"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="41"/>
       <c r="C41" s="40" t="s">
         <v>42</v>
@@ -3802,7 +3736,7 @@
       </c>
       <c r="J41" s="85"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="41"/>
       <c r="C42" s="40" t="s">
         <v>63</v>
@@ -3821,7 +3755,7 @@
       </c>
       <c r="J42" s="85"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="41"/>
       <c r="C43" s="40" t="s">
         <v>13</v>
@@ -3840,7 +3774,7 @@
       </c>
       <c r="J43" s="85"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="41"/>
       <c r="C44" s="40" t="s">
         <v>64</v>
@@ -3859,7 +3793,7 @@
       </c>
       <c r="J44" s="85"/>
     </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="41"/>
       <c r="C45" s="40" t="s">
         <v>67</v>
@@ -3878,7 +3812,7 @@
       </c>
       <c r="J45" s="85"/>
     </row>
-    <row r="46" spans="2:10" ht="16" thickBot="1">
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="41"/>
       <c r="C46" s="40" t="s">
         <v>65</v>
@@ -3897,7 +3831,7 @@
       </c>
       <c r="J46" s="85"/>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" thickBot="1">
+    <row r="47" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
@@ -3914,43 +3848,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3924300</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3965,34 +3862,34 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="93" customWidth="1"/>
-    <col min="2" max="2" width="2.625" style="93" customWidth="1"/>
-    <col min="3" max="3" width="34.25" style="93" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="93" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="93" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="93" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="93" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="93" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="93" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="93" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="93" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="93" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="93" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="93" customWidth="1"/>
     <col min="8" max="8" width="3" style="93" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="93" customWidth="1"/>
-    <col min="10" max="10" width="2.375" style="93" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="93" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="93" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="93" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="93" customWidth="1"/>
     <col min="12" max="12" width="2" style="93" customWidth="1"/>
-    <col min="13" max="13" width="7.875" style="93" customWidth="1"/>
-    <col min="14" max="14" width="2.625" style="93" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="93" customWidth="1"/>
-    <col min="16" max="16" width="3.625" style="93" customWidth="1"/>
-    <col min="17" max="17" width="9.125" style="93" customWidth="1"/>
-    <col min="18" max="18" width="2.875" style="93" customWidth="1"/>
-    <col min="19" max="19" width="9.875" style="93" customWidth="1"/>
-    <col min="20" max="20" width="2.875" style="93" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="93" customWidth="1"/>
+    <col min="14" max="14" width="2.5703125" style="93" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="93" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" style="93" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="93" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="93" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="93" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" style="93" customWidth="1"/>
     <col min="21" max="21" width="58" style="93" customWidth="1"/>
-    <col min="22" max="16384" width="10.625" style="93"/>
+    <col min="22" max="16384" width="10.7109375" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="16" thickBot="1"/>
-    <row r="2" spans="2:21">
+    <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="97"/>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
@@ -4014,7 +3911,7 @@
       <c r="T2" s="98"/>
       <c r="U2" s="98"/>
     </row>
-    <row r="3" spans="2:21" s="24" customFormat="1">
+    <row r="3" spans="2:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="61" t="s">
         <v>106</v>
@@ -4053,10 +3950,10 @@
       </c>
       <c r="T3" s="61"/>
       <c r="U3" s="61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="99"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -4084,7 +3981,7 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="2:21" ht="16" thickBot="1">
+    <row r="5" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="99"/>
       <c r="C5" s="33" t="s">
         <v>104</v>
@@ -4108,7 +4005,7 @@
       <c r="T5" s="92"/>
       <c r="U5" s="103"/>
     </row>
-    <row r="6" spans="2:21" ht="16" thickBot="1">
+    <row r="6" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="99"/>
       <c r="C6" s="96" t="s">
         <v>33</v>
@@ -4116,7 +4013,7 @@
       <c r="D6" s="96"/>
       <c r="E6" s="96"/>
       <c r="F6" s="94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" s="104">
         <v>3</v>
@@ -4127,7 +4024,7 @@
       <c r="O6" s="92"/>
       <c r="U6" s="106"/>
     </row>
-    <row r="7" spans="2:21" ht="16" customHeight="1">
+    <row r="7" spans="2:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="99"/>
       <c r="C7" s="106"/>
       <c r="D7" s="106"/>
@@ -4135,7 +4032,7 @@
       <c r="F7" s="106"/>
       <c r="U7" s="106"/>
     </row>
-    <row r="8" spans="2:21" ht="18" customHeight="1">
+    <row r="8" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="99"/>
       <c r="C8" s="107"/>
       <c r="D8" s="107"/>
@@ -4148,7 +4045,7 @@
       <c r="O8" s="92"/>
       <c r="U8" s="106"/>
     </row>
-    <row r="9" spans="2:21" ht="18" customHeight="1" thickBot="1">
+    <row r="9" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="99"/>
       <c r="C9" s="33" t="s">
         <v>7</v>
@@ -4162,7 +4059,7 @@
       <c r="J9" s="11"/>
       <c r="U9" s="106"/>
     </row>
-    <row r="10" spans="2:21" ht="18" customHeight="1" thickBot="1">
+    <row r="10" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="99"/>
       <c r="C10" s="95" t="s">
         <v>103</v>
@@ -4185,7 +4082,7 @@
       </c>
       <c r="U10" s="106"/>
     </row>
-    <row r="11" spans="2:21" ht="16" thickBot="1">
+    <row r="11" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="99"/>
       <c r="C11" s="95" t="s">
         <v>5</v>
@@ -4217,10 +4114,10 @@
       </c>
       <c r="R11" s="92"/>
       <c r="U11" s="117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" ht="16" thickBot="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="99"/>
       <c r="C12" s="113" t="s">
         <v>94</v>
@@ -4253,7 +4150,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="99"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -4265,7 +4162,7 @@
       <c r="J13" s="12"/>
       <c r="U13" s="117"/>
     </row>
-    <row r="14" spans="2:21" ht="16" thickBot="1">
+    <row r="14" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="99"/>
       <c r="C14" s="13" t="s">
         <v>105</v>
@@ -4281,13 +4178,13 @@
       <c r="Q14" s="92"/>
       <c r="S14" s="92"/>
       <c r="U14" s="106" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" ht="16" thickBot="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="99"/>
       <c r="C15" s="96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4306,18 +4203,18 @@
       <c r="R15" s="108"/>
       <c r="S15" s="108"/>
       <c r="U15" s="106" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" ht="16" thickBot="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="99"/>
       <c r="C16" s="95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" s="95"/>
       <c r="E16" s="95"/>
       <c r="F16" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" s="118">
         <f>0.8*G17</f>
@@ -4331,18 +4228,18 @@
       <c r="R16" s="108"/>
       <c r="S16" s="108"/>
       <c r="U16" s="132" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" ht="16" thickBot="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="99"/>
       <c r="C17" s="119" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="119"/>
       <c r="E17" s="119"/>
       <c r="F17" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" s="118">
         <f>O17</f>
@@ -4365,10 +4262,10 @@
         <v>4218</v>
       </c>
       <c r="U17" s="106" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" ht="16" thickBot="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="99"/>
       <c r="C18" s="95" t="s">
         <v>8</v>
@@ -4390,10 +4287,10 @@
       <c r="R18" s="108"/>
       <c r="S18" s="108"/>
       <c r="U18" s="106" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" ht="16" thickBot="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="99"/>
       <c r="C19" s="95" t="s">
         <v>8</v>
@@ -4401,7 +4298,7 @@
       <c r="D19" s="120"/>
       <c r="E19" s="120"/>
       <c r="F19" s="133" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G19" s="118">
         <f>Notes!D71*'Research data'!G17</f>
@@ -4421,7 +4318,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="16" thickBot="1">
+    <row r="20" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="99"/>
       <c r="C20" s="95" t="s">
         <v>108</v>
@@ -4429,7 +4326,7 @@
       <c r="D20" s="120"/>
       <c r="E20" s="120"/>
       <c r="F20" s="94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="118">
         <f>ROUND(G21*G6*1000,2)</f>
@@ -4446,10 +4343,10 @@
       <c r="R20" s="108"/>
       <c r="S20" s="108"/>
       <c r="U20" s="106" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" ht="16" thickBot="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="99"/>
       <c r="C21" s="95" t="s">
         <v>108</v>
@@ -4457,7 +4354,7 @@
       <c r="D21" s="122"/>
       <c r="E21" s="122"/>
       <c r="F21" s="133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G21" s="123">
         <f>S21</f>
@@ -4473,10 +4370,10 @@
         <v>101</v>
       </c>
       <c r="U21" s="106" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" ht="16" thickBot="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="99"/>
       <c r="C22" s="95" t="s">
         <v>75</v>
@@ -4497,10 +4394,10 @@
       <c r="R22" s="108"/>
       <c r="S22" s="108"/>
       <c r="U22" s="106" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="99"/>
       <c r="C23" s="92"/>
       <c r="D23" s="92"/>
@@ -4513,17 +4410,12 @@
       <c r="O23" s="92"/>
       <c r="Q23" s="92"/>
       <c r="U23" s="106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4538,22 +4430,22 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="58" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="58" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="58" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="78" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="58" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="78" customWidth="1"/>
     <col min="9" max="9" width="33" style="78" customWidth="1"/>
-    <col min="10" max="10" width="103.375" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="58"/>
+    <col min="10" max="10" width="103.42578125" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="79"/>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -4564,7 +4456,7 @@
       <c r="I2" s="81"/>
       <c r="J2" s="80"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="57"/>
       <c r="C3" s="14" t="s">
         <v>23</v>
@@ -4577,7 +4469,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="67"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="57"/>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
@@ -4588,7 +4480,7 @@
       <c r="I4" s="82"/>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="83"/>
       <c r="C5" s="16" t="s">
         <v>34</v>
@@ -4603,19 +4495,19 @@
         <v>35</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="57"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -4626,7 +4518,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
       <c r="C7" s="67"/>
       <c r="D7" s="67" t="s">
@@ -4643,13 +4535,13 @@
       </c>
       <c r="H7" s="82"/>
       <c r="I7" s="135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J7" s="134" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="57"/>
       <c r="C8" s="84" t="s">
         <v>9</v>
@@ -4662,7 +4554,7 @@
       <c r="I8" s="67"/>
       <c r="J8" s="49"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="57"/>
       <c r="C9" s="84" t="s">
         <v>90</v>
@@ -4675,11 +4567,11 @@
       <c r="I9" s="67"/>
       <c r="J9" s="67"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="57"/>
       <c r="C10" s="63"/>
       <c r="D10" s="92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="67" t="s">
         <v>24</v>
@@ -4692,19 +4584,19 @@
       </c>
       <c r="H10" s="67"/>
       <c r="I10" s="136" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J10" s="134" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="57"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="67"/>
       <c r="F11" s="67">
@@ -4715,13 +4607,13 @@
       </c>
       <c r="H11" s="67"/>
       <c r="I11" s="136" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J11" s="58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="57"/>
       <c r="C12" s="63" t="s">
         <v>109</v>
@@ -4734,7 +4626,7 @@
       <c r="I12" s="67"/>
       <c r="J12" s="92"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="57"/>
       <c r="C13" s="63"/>
       <c r="D13" s="67"/>
@@ -4745,7 +4637,7 @@
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="57"/>
       <c r="C14" s="84"/>
       <c r="D14" s="67" t="s">
@@ -4762,13 +4654,13 @@
       </c>
       <c r="H14" s="67"/>
       <c r="I14" s="136" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J14" s="134" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="57"/>
       <c r="C15" s="84" t="s">
         <v>9</v>
@@ -4781,7 +4673,7 @@
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="57"/>
       <c r="C16" s="63"/>
       <c r="D16" s="67"/>
@@ -4792,7 +4684,7 @@
       <c r="I16" s="67"/>
       <c r="J16" s="67"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="57"/>
       <c r="C17" s="84"/>
       <c r="D17" s="67" t="s">
@@ -4809,13 +4701,13 @@
       </c>
       <c r="H17" s="67"/>
       <c r="I17" s="136" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J17" s="134" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="57"/>
       <c r="C18" s="84" t="s">
         <v>5</v>
@@ -4828,10 +4720,10 @@
       <c r="I18" s="67"/>
       <c r="J18" s="67"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="57"/>
       <c r="C19" s="126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="67"/>
@@ -4841,7 +4733,7 @@
       <c r="I19" s="67"/>
       <c r="J19" s="67"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="57"/>
       <c r="C20" s="63"/>
       <c r="D20" s="67"/>
@@ -4852,7 +4744,7 @@
       <c r="I20" s="67"/>
       <c r="J20" s="67"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="57"/>
       <c r="C21" s="84"/>
       <c r="D21" s="67" t="s">
@@ -4869,13 +4761,13 @@
       </c>
       <c r="H21" s="67"/>
       <c r="I21" s="136" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J21" s="134" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="57"/>
       <c r="C22" s="50" t="s">
         <v>5</v>
@@ -4888,10 +4780,10 @@
       <c r="I22" s="67"/>
       <c r="J22" s="67"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="57"/>
       <c r="C23" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D23" s="67"/>
       <c r="E23" s="67"/>
@@ -4901,7 +4793,7 @@
       <c r="I23" s="67"/>
       <c r="J23" s="67"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="57"/>
       <c r="C24" s="51"/>
       <c r="D24" s="67"/>
@@ -4912,7 +4804,7 @@
       <c r="I24" s="67"/>
       <c r="J24" s="67"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="57"/>
       <c r="C25" s="50" t="s">
         <v>89</v>
@@ -4931,7 +4823,7 @@
       </c>
       <c r="H25" s="67"/>
       <c r="I25" s="136" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J25" s="134" t="s">
         <v>84</v>
@@ -4940,11 +4832,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4956,15 +4843,15 @@
       <selection activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="93" customWidth="1"/>
-    <col min="2" max="2" width="4.25" style="93" customWidth="1"/>
-    <col min="3" max="16384" width="10.625" style="93"/>
+    <col min="1" max="1" width="5.5703125" style="93" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="93" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1"/>
-    <row r="2" spans="2:13">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="97"/>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
@@ -4978,13 +4865,13 @@
       <c r="L2" s="98"/>
       <c r="M2" s="98"/>
     </row>
-    <row r="3" spans="2:13" s="24" customFormat="1">
+    <row r="3" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="87"/>
       <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -4996,7 +4883,7 @@
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="99"/>
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
@@ -5010,10 +4897,10 @@
       <c r="L4" s="92"/>
       <c r="M4" s="92"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="99"/>
       <c r="C5" s="92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="92"/>
       <c r="E5" s="92"/>
@@ -5026,10 +4913,10 @@
       <c r="L5" s="92"/>
       <c r="M5" s="92"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="99"/>
       <c r="C6" s="92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="92"/>
       <c r="E6" s="92"/>
@@ -5042,7 +4929,7 @@
       <c r="L6" s="92"/>
       <c r="M6" s="92"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="99"/>
       <c r="C7" s="92"/>
       <c r="D7" s="92"/>
@@ -5056,7 +4943,7 @@
       <c r="L7" s="92"/>
       <c r="M7" s="92"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="99"/>
       <c r="C8" s="92"/>
       <c r="D8" s="92"/>
@@ -5070,7 +4957,7 @@
       <c r="L8" s="92"/>
       <c r="M8" s="92"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="99"/>
       <c r="C9" s="92"/>
       <c r="D9" s="92"/>
@@ -5084,7 +4971,7 @@
       <c r="L9" s="92"/>
       <c r="M9" s="92"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="99"/>
       <c r="C10" s="92"/>
       <c r="D10" s="92"/>
@@ -5098,7 +4985,7 @@
       <c r="L10" s="92"/>
       <c r="M10" s="92"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="99"/>
       <c r="C11" s="92"/>
       <c r="D11" s="92"/>
@@ -5112,7 +4999,7 @@
       <c r="L11" s="92"/>
       <c r="M11" s="92"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="99"/>
       <c r="C12" s="92"/>
       <c r="D12" s="92"/>
@@ -5126,7 +5013,7 @@
       <c r="L12" s="92"/>
       <c r="M12" s="92"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="99"/>
       <c r="C13" s="92"/>
       <c r="D13" s="92"/>
@@ -5140,7 +5027,7 @@
       <c r="L13" s="92"/>
       <c r="M13" s="92"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="99"/>
       <c r="C14" s="92"/>
       <c r="F14" s="92"/>
@@ -5152,7 +5039,7 @@
       <c r="L14" s="92"/>
       <c r="M14" s="92"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="99"/>
       <c r="C15" s="92"/>
       <c r="F15" s="92"/>
@@ -5164,7 +5051,7 @@
       <c r="L15" s="92"/>
       <c r="M15" s="92"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="99"/>
       <c r="C16" s="92"/>
       <c r="D16" s="92"/>
@@ -5178,7 +5065,7 @@
       <c r="L16" s="92"/>
       <c r="M16" s="92"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="99"/>
       <c r="C17" s="92"/>
       <c r="D17" s="92"/>
@@ -5192,14 +5079,14 @@
       <c r="L17" s="92"/>
       <c r="M17" s="92"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="99"/>
       <c r="C18" s="92"/>
       <c r="D18" s="131" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="92"/>
       <c r="G18" s="92"/>
@@ -5210,17 +5097,17 @@
       <c r="L18" s="92"/>
       <c r="M18" s="92"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="99"/>
       <c r="C19" s="130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="127">
         <f>AVERAGE(3.6,5.6)</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="E19" s="92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="92"/>
       <c r="G19" s="92"/>
@@ -5231,7 +5118,7 @@
       <c r="L19" s="92"/>
       <c r="M19" s="92"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="99"/>
       <c r="C20" s="92"/>
       <c r="D20" s="92"/>
@@ -5245,7 +5132,7 @@
       <c r="L20" s="92"/>
       <c r="M20" s="92"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="99"/>
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
@@ -5259,10 +5146,10 @@
       <c r="L21" s="92"/>
       <c r="M21" s="92"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="99"/>
       <c r="C22" s="92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22" s="92"/>
       <c r="E22" s="92"/>
@@ -5275,10 +5162,10 @@
       <c r="L22" s="92"/>
       <c r="M22" s="92"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="99"/>
       <c r="C23" s="92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" s="92"/>
       <c r="E23" s="92"/>
@@ -5291,7 +5178,7 @@
       <c r="L23" s="92"/>
       <c r="M23" s="92"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="99"/>
       <c r="C24" s="92"/>
       <c r="D24" s="92"/>
@@ -5305,7 +5192,7 @@
       <c r="L24" s="92"/>
       <c r="M24" s="92"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="99"/>
       <c r="C25" s="92"/>
       <c r="D25" s="92"/>
@@ -5319,7 +5206,7 @@
       <c r="L25" s="92"/>
       <c r="M25" s="92"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="99"/>
       <c r="C26" s="92"/>
       <c r="D26" s="92"/>
@@ -5333,7 +5220,7 @@
       <c r="L26" s="92"/>
       <c r="M26" s="92"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="99"/>
       <c r="C27" s="92"/>
       <c r="D27" s="92"/>
@@ -5347,7 +5234,7 @@
       <c r="L27" s="92"/>
       <c r="M27" s="92"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="99"/>
       <c r="C28" s="92"/>
       <c r="D28" s="92"/>
@@ -5361,7 +5248,7 @@
       <c r="L28" s="92"/>
       <c r="M28" s="92"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="99"/>
       <c r="C29" s="92"/>
       <c r="D29" s="92"/>
@@ -5375,7 +5262,7 @@
       <c r="L29" s="92"/>
       <c r="M29" s="92"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="99"/>
       <c r="C30" s="92"/>
       <c r="D30" s="92"/>
@@ -5389,14 +5276,14 @@
       <c r="L30" s="92"/>
       <c r="M30" s="92"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="99"/>
       <c r="C31" s="92"/>
       <c r="D31" s="127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E31" s="92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -5407,16 +5294,16 @@
       <c r="L31" s="92"/>
       <c r="M31" s="92"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="99"/>
       <c r="C32" s="130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32" s="127">
         <v>4.5999999999999996</v>
       </c>
       <c r="E32" s="92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F32" s="92"/>
       <c r="G32" s="92"/>
@@ -5427,14 +5314,14 @@
       <c r="L32" s="92"/>
       <c r="M32" s="92"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="99"/>
       <c r="C33" s="92"/>
       <c r="D33" s="92">
         <v>3444</v>
       </c>
       <c r="E33" s="92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="92"/>
       <c r="G33" s="92"/>
@@ -5445,7 +5332,7 @@
       <c r="L33" s="92"/>
       <c r="M33" s="92"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="99"/>
       <c r="C34" s="92"/>
       <c r="D34" s="92"/>
@@ -5459,7 +5346,7 @@
       <c r="L34" s="92"/>
       <c r="M34" s="92"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="99"/>
       <c r="C35" s="92"/>
       <c r="D35" s="92"/>
@@ -5473,7 +5360,7 @@
       <c r="L35" s="92"/>
       <c r="M35" s="92"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="99"/>
       <c r="C36" s="92"/>
       <c r="D36" s="92"/>
@@ -5487,7 +5374,7 @@
       <c r="L36" s="92"/>
       <c r="M36" s="92"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="99"/>
       <c r="C37" s="92"/>
       <c r="D37" s="92"/>
@@ -5501,7 +5388,7 @@
       <c r="L37" s="92"/>
       <c r="M37" s="92"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="99"/>
       <c r="C38" s="92"/>
       <c r="D38" s="92"/>
@@ -5515,7 +5402,7 @@
       <c r="L38" s="92"/>
       <c r="M38" s="92"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="99"/>
       <c r="C39" s="92"/>
       <c r="D39" s="92"/>
@@ -5529,7 +5416,7 @@
       <c r="L39" s="92"/>
       <c r="M39" s="92"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="99"/>
       <c r="C40" s="92"/>
       <c r="D40" s="92"/>
@@ -5543,10 +5430,10 @@
       <c r="L40" s="92"/>
       <c r="M40" s="92"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="99"/>
       <c r="C41" s="92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="92"/>
       <c r="E41" s="92"/>
@@ -5559,7 +5446,7 @@
       <c r="L41" s="92"/>
       <c r="M41" s="92"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="99"/>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -5573,7 +5460,7 @@
       <c r="L42" s="92"/>
       <c r="M42" s="92"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="99"/>
       <c r="C43" s="92"/>
       <c r="D43" s="92"/>
@@ -5587,7 +5474,7 @@
       <c r="L43" s="92"/>
       <c r="M43" s="92"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="99"/>
       <c r="C44" s="92"/>
       <c r="D44" s="92"/>
@@ -5601,7 +5488,7 @@
       <c r="L44" s="92"/>
       <c r="M44" s="92"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="99"/>
       <c r="C45" s="92"/>
       <c r="D45" s="92"/>
@@ -5615,14 +5502,14 @@
       <c r="L45" s="92"/>
       <c r="M45" s="92"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="99"/>
       <c r="C46" s="92"/>
       <c r="D46" s="124" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="92" t="s">
         <v>173</v>
-      </c>
-      <c r="E46" s="92" t="s">
-        <v>174</v>
       </c>
       <c r="F46" s="92"/>
       <c r="G46" s="92"/>
@@ -5633,7 +5520,7 @@
       <c r="L46" s="92"/>
       <c r="M46" s="92"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="99"/>
       <c r="C47" s="92"/>
       <c r="D47" s="128">
@@ -5650,7 +5537,7 @@
       <c r="L47" s="92"/>
       <c r="M47" s="92"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="99"/>
       <c r="C48" s="92"/>
       <c r="D48" s="124"/>
@@ -5664,7 +5551,7 @@
       <c r="L48" s="92"/>
       <c r="M48" s="92"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="99"/>
       <c r="C49" s="92"/>
       <c r="D49" s="124"/>
@@ -5678,7 +5565,7 @@
       <c r="L49" s="92"/>
       <c r="M49" s="92"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="99"/>
       <c r="C50" s="92"/>
       <c r="D50" s="124"/>
@@ -5692,7 +5579,7 @@
       <c r="L50" s="92"/>
       <c r="M50" s="92"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="99"/>
       <c r="C51" s="92"/>
       <c r="D51" s="124"/>
@@ -5706,7 +5593,7 @@
       <c r="L51" s="92"/>
       <c r="M51" s="92"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="99"/>
       <c r="C52" s="92"/>
       <c r="D52" s="124"/>
@@ -5720,7 +5607,7 @@
       <c r="L52" s="92"/>
       <c r="M52" s="92"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="99"/>
       <c r="C53" s="92"/>
       <c r="D53" s="124"/>
@@ -5734,7 +5621,7 @@
       <c r="L53" s="92"/>
       <c r="M53" s="92"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="99"/>
       <c r="C54" s="92"/>
       <c r="D54" s="124"/>
@@ -5748,7 +5635,7 @@
       <c r="L54" s="92"/>
       <c r="M54" s="92"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="99"/>
       <c r="C55" s="92"/>
       <c r="D55" s="124"/>
@@ -5762,7 +5649,7 @@
       <c r="L55" s="92"/>
       <c r="M55" s="92"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="99"/>
       <c r="C56" s="92"/>
       <c r="D56" s="92"/>
@@ -5776,7 +5663,7 @@
       <c r="L56" s="92"/>
       <c r="M56" s="92"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="99"/>
       <c r="C57" s="92"/>
       <c r="D57" s="92"/>
@@ -5790,7 +5677,7 @@
       <c r="L57" s="92"/>
       <c r="M57" s="92"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="99"/>
       <c r="C58" s="92"/>
       <c r="D58" s="92"/>
@@ -5804,7 +5691,7 @@
       <c r="L58" s="92"/>
       <c r="M58" s="92"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="99"/>
       <c r="C59" s="92"/>
       <c r="D59" s="92"/>
@@ -5818,7 +5705,7 @@
       <c r="L59" s="92"/>
       <c r="M59" s="92"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="99"/>
       <c r="C60" s="92"/>
       <c r="D60" s="92"/>
@@ -5832,7 +5719,7 @@
       <c r="L60" s="92"/>
       <c r="M60" s="92"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="99"/>
       <c r="C61" s="92"/>
       <c r="D61" s="92"/>
@@ -5846,7 +5733,7 @@
       <c r="L61" s="92"/>
       <c r="M61" s="92"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="99"/>
       <c r="C62" s="92"/>
       <c r="D62" s="92"/>
@@ -5860,7 +5747,7 @@
       <c r="L62" s="92"/>
       <c r="M62" s="92"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="99"/>
       <c r="C63" s="92"/>
       <c r="D63" s="92"/>
@@ -5874,10 +5761,10 @@
       <c r="L63" s="92"/>
       <c r="M63" s="92"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="99"/>
       <c r="C64" s="92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D64" s="92"/>
       <c r="E64" s="92"/>
@@ -5890,10 +5777,10 @@
       <c r="L64" s="92"/>
       <c r="M64" s="92"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="99"/>
       <c r="C65" s="92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D65" s="92"/>
       <c r="E65" s="92"/>
@@ -5906,7 +5793,7 @@
       <c r="L65" s="92"/>
       <c r="M65" s="92"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="99"/>
       <c r="C66" s="92"/>
       <c r="D66" s="92"/>
@@ -5920,7 +5807,7 @@
       <c r="L66" s="92"/>
       <c r="M66" s="92"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="99"/>
       <c r="C67" s="92"/>
       <c r="D67" s="92"/>
@@ -5934,7 +5821,7 @@
       <c r="L67" s="92"/>
       <c r="M67" s="92"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="99"/>
       <c r="C68" s="92"/>
       <c r="D68" s="92"/>
@@ -5948,7 +5835,7 @@
       <c r="L68" s="92"/>
       <c r="M68" s="92"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="99"/>
       <c r="C69" s="92"/>
       <c r="D69" s="92"/>
@@ -5962,11 +5849,11 @@
       <c r="L69" s="92"/>
       <c r="M69" s="92"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="99"/>
       <c r="C70" s="92"/>
       <c r="D70" s="127" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E70" s="92" t="s">
         <v>2</v>
@@ -5980,10 +5867,10 @@
       <c r="L70" s="92"/>
       <c r="M70" s="92"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="99"/>
       <c r="C71" s="92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D71" s="129">
         <v>0.2</v>
@@ -5998,7 +5885,7 @@
       <c r="L71" s="92"/>
       <c r="M71" s="92"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="99"/>
       <c r="C72" s="92"/>
       <c r="D72" s="92"/>
@@ -6012,7 +5899,7 @@
       <c r="L72" s="92"/>
       <c r="M72" s="92"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="99"/>
       <c r="C73" s="92"/>
       <c r="D73" s="92"/>
@@ -6026,7 +5913,7 @@
       <c r="L73" s="92"/>
       <c r="M73" s="92"/>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" s="99"/>
       <c r="C74" s="92"/>
       <c r="D74" s="92"/>
@@ -6040,7 +5927,7 @@
       <c r="L74" s="92"/>
       <c r="M74" s="92"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="99"/>
       <c r="C75" s="92"/>
       <c r="D75" s="92"/>
@@ -6054,7 +5941,7 @@
       <c r="L75" s="92"/>
       <c r="M75" s="92"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="99"/>
       <c r="C76" s="92"/>
       <c r="D76" s="92"/>
@@ -6068,7 +5955,7 @@
       <c r="L76" s="92"/>
       <c r="M76" s="92"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="99"/>
       <c r="C77" s="92"/>
       <c r="D77" s="92"/>
@@ -6082,7 +5969,7 @@
       <c r="L77" s="92"/>
       <c r="M77" s="92"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="99"/>
       <c r="C78" s="92"/>
       <c r="D78" s="92"/>
@@ -6096,7 +5983,7 @@
       <c r="L78" s="92"/>
       <c r="M78" s="92"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="99"/>
       <c r="C79" s="92"/>
       <c r="D79" s="92"/>
@@ -6110,7 +5997,7 @@
       <c r="L79" s="92"/>
       <c r="M79" s="92"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="99"/>
       <c r="C80" s="92"/>
       <c r="D80" s="92"/>
@@ -6124,7 +6011,7 @@
       <c r="L80" s="92"/>
       <c r="M80" s="92"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="99"/>
       <c r="C81" s="92"/>
       <c r="D81" s="92"/>
@@ -6138,7 +6025,7 @@
       <c r="L81" s="92"/>
       <c r="M81" s="92"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="99"/>
       <c r="C82" s="92"/>
       <c r="D82" s="92"/>
@@ -6152,7 +6039,7 @@
       <c r="L82" s="92"/>
       <c r="M82" s="92"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="99"/>
       <c r="C83" s="92"/>
       <c r="D83" s="92"/>
@@ -6166,10 +6053,10 @@
       <c r="L83" s="92"/>
       <c r="M83" s="92"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="99"/>
       <c r="C84" s="92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D84" s="92"/>
       <c r="E84" s="92"/>
@@ -6182,7 +6069,7 @@
       <c r="L84" s="92"/>
       <c r="M84" s="92"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="99"/>
       <c r="C85" s="92"/>
       <c r="D85" s="92"/>
@@ -6196,7 +6083,7 @@
       <c r="L85" s="92"/>
       <c r="M85" s="92"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="99"/>
       <c r="C86" s="92"/>
       <c r="D86" s="92"/>
@@ -6210,7 +6097,7 @@
       <c r="L86" s="92"/>
       <c r="M86" s="92"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="99"/>
       <c r="C87" s="92"/>
       <c r="D87" s="92"/>
@@ -6224,14 +6111,14 @@
       <c r="L87" s="92"/>
       <c r="M87" s="92"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="99"/>
       <c r="C88" s="92"/>
       <c r="D88" s="92">
         <v>20</v>
       </c>
       <c r="E88" s="92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F88" s="92"/>
       <c r="G88" s="92"/>
@@ -6242,7 +6129,7 @@
       <c r="L88" s="92"/>
       <c r="M88" s="92"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="99"/>
       <c r="C89" s="92"/>
       <c r="D89" s="92"/>
@@ -6256,7 +6143,7 @@
       <c r="L89" s="92"/>
       <c r="M89" s="92"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="99"/>
       <c r="C90" s="92" t="s">
         <v>100</v>
@@ -6272,10 +6159,10 @@
       <c r="L90" s="92"/>
       <c r="M90" s="92"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="99"/>
       <c r="C91" s="92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D91" s="92"/>
       <c r="E91" s="92"/>
@@ -6288,7 +6175,7 @@
       <c r="L91" s="92"/>
       <c r="M91" s="92"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="99"/>
       <c r="C92" s="92"/>
       <c r="D92" s="92"/>
@@ -6302,7 +6189,7 @@
       <c r="L92" s="92"/>
       <c r="M92" s="92"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="99"/>
       <c r="C93" s="92"/>
       <c r="D93" s="92"/>
@@ -6316,7 +6203,7 @@
       <c r="L93" s="92"/>
       <c r="M93" s="92"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="99"/>
       <c r="C94" s="92"/>
       <c r="D94" s="92"/>
@@ -6330,7 +6217,7 @@
       <c r="L94" s="92"/>
       <c r="M94" s="92"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="99"/>
       <c r="C95" s="92"/>
       <c r="D95" s="92"/>
@@ -6344,7 +6231,7 @@
       <c r="L95" s="92"/>
       <c r="M95" s="92"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="99"/>
       <c r="C96" s="92"/>
       <c r="D96" s="92"/>
@@ -6358,7 +6245,7 @@
       <c r="L96" s="92"/>
       <c r="M96" s="92"/>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B97" s="99"/>
       <c r="C97" s="92"/>
       <c r="D97" s="92"/>
@@ -6372,7 +6259,7 @@
       <c r="L97" s="92"/>
       <c r="M97" s="92"/>
     </row>
-    <row r="98" spans="2:13">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B98" s="99"/>
       <c r="C98" s="92"/>
       <c r="D98" s="92"/>
@@ -6386,7 +6273,7 @@
       <c r="L98" s="92"/>
       <c r="M98" s="92"/>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B99" s="99"/>
       <c r="C99" s="92"/>
       <c r="D99" s="92"/>
@@ -6400,7 +6287,7 @@
       <c r="L99" s="92"/>
       <c r="M99" s="92"/>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B100" s="99"/>
       <c r="C100" s="92"/>
       <c r="D100" s="92"/>
@@ -6414,14 +6301,14 @@
       <c r="L100" s="92"/>
       <c r="M100" s="92"/>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101" s="99"/>
       <c r="C101" s="92"/>
       <c r="D101" s="92">
         <v>20</v>
       </c>
       <c r="E101" s="92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F101" s="92"/>
       <c r="G101" s="92"/>
@@ -6432,7 +6319,7 @@
       <c r="L101" s="92"/>
       <c r="M101" s="92"/>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B102" s="99"/>
       <c r="C102" s="92"/>
       <c r="D102" s="92"/>
@@ -6446,7 +6333,7 @@
       <c r="L102" s="92"/>
       <c r="M102" s="92"/>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B103" s="99"/>
       <c r="C103" s="92"/>
       <c r="D103" s="92"/>
@@ -6460,7 +6347,7 @@
       <c r="L103" s="92"/>
       <c r="M103" s="92"/>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B104" s="99"/>
       <c r="C104" s="92"/>
       <c r="D104" s="92"/>
@@ -6474,10 +6361,10 @@
       <c r="L104" s="92"/>
       <c r="M104" s="92"/>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B105" s="99"/>
       <c r="C105" s="92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D105" s="92"/>
       <c r="E105" s="92"/>
@@ -6490,7 +6377,7 @@
       <c r="L105" s="92"/>
       <c r="M105" s="92"/>
     </row>
-    <row r="106" spans="2:13">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B106" s="99"/>
       <c r="C106" s="92"/>
       <c r="D106" s="92"/>
@@ -6504,7 +6391,7 @@
       <c r="L106" s="92"/>
       <c r="M106" s="92"/>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B107" s="99"/>
       <c r="C107" s="92"/>
       <c r="D107" s="92"/>
@@ -6518,7 +6405,7 @@
       <c r="L107" s="92"/>
       <c r="M107" s="92"/>
     </row>
-    <row r="108" spans="2:13">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B108" s="99"/>
       <c r="C108" s="92"/>
       <c r="D108" s="92"/>
@@ -6532,7 +6419,7 @@
       <c r="L108" s="92"/>
       <c r="M108" s="92"/>
     </row>
-    <row r="109" spans="2:13">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B109" s="99"/>
       <c r="C109" s="92"/>
       <c r="D109" s="92"/>
@@ -6546,7 +6433,7 @@
       <c r="L109" s="92"/>
       <c r="M109" s="92"/>
     </row>
-    <row r="110" spans="2:13">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B110" s="99"/>
       <c r="C110" s="92"/>
       <c r="D110" s="92"/>
@@ -6560,7 +6447,7 @@
       <c r="L110" s="92"/>
       <c r="M110" s="92"/>
     </row>
-    <row r="111" spans="2:13">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B111" s="99"/>
       <c r="C111" s="92"/>
       <c r="D111" s="92"/>
@@ -6574,7 +6461,7 @@
       <c r="L111" s="92"/>
       <c r="M111" s="92"/>
     </row>
-    <row r="112" spans="2:13">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B112" s="99"/>
       <c r="C112" s="92"/>
       <c r="D112" s="92"/>
@@ -6588,7 +6475,7 @@
       <c r="L112" s="92"/>
       <c r="M112" s="92"/>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B113" s="99"/>
       <c r="C113" s="92"/>
       <c r="D113" s="92"/>
@@ -6602,7 +6489,7 @@
       <c r="L113" s="92"/>
       <c r="M113" s="92"/>
     </row>
-    <row r="114" spans="2:13">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B114" s="99"/>
       <c r="C114" s="92"/>
       <c r="D114" s="92"/>
@@ -6616,7 +6503,7 @@
       <c r="L114" s="92"/>
       <c r="M114" s="92"/>
     </row>
-    <row r="115" spans="2:13">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B115" s="99"/>
       <c r="C115" s="92"/>
       <c r="D115" s="92"/>
@@ -6630,7 +6517,7 @@
       <c r="L115" s="92"/>
       <c r="M115" s="92"/>
     </row>
-    <row r="116" spans="2:13">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B116" s="99"/>
       <c r="C116" s="92"/>
       <c r="D116" s="129">
@@ -6646,7 +6533,7 @@
       <c r="L116" s="92"/>
       <c r="M116" s="92"/>
     </row>
-    <row r="117" spans="2:13">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B117" s="99"/>
       <c r="C117" s="92"/>
       <c r="D117" s="92"/>
@@ -6660,7 +6547,7 @@
       <c r="L117" s="92"/>
       <c r="M117" s="92"/>
     </row>
-    <row r="118" spans="2:13">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B118" s="99"/>
       <c r="C118" s="92"/>
       <c r="D118" s="92"/>
@@ -6674,7 +6561,7 @@
       <c r="L118" s="92"/>
       <c r="M118" s="92"/>
     </row>
-    <row r="119" spans="2:13">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B119" s="99"/>
       <c r="C119" s="92"/>
       <c r="D119" s="92"/>
@@ -6688,7 +6575,7 @@
       <c r="L119" s="92"/>
       <c r="M119" s="92"/>
     </row>
-    <row r="120" spans="2:13">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B120" s="99"/>
       <c r="C120" s="92"/>
       <c r="D120" s="92"/>
@@ -6702,7 +6589,7 @@
       <c r="L120" s="92"/>
       <c r="M120" s="92"/>
     </row>
-    <row r="121" spans="2:13">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B121" s="99"/>
       <c r="C121" s="92"/>
       <c r="D121" s="92"/>
@@ -6716,7 +6603,7 @@
       <c r="L121" s="92"/>
       <c r="M121" s="92"/>
     </row>
-    <row r="122" spans="2:13">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B122" s="99"/>
       <c r="C122" s="92"/>
       <c r="D122" s="92"/>
@@ -6730,7 +6617,7 @@
       <c r="L122" s="92"/>
       <c r="M122" s="92"/>
     </row>
-    <row r="123" spans="2:13">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B123" s="99"/>
       <c r="C123" s="92"/>
       <c r="D123" s="92"/>
@@ -6744,7 +6631,7 @@
       <c r="L123" s="92"/>
       <c r="M123" s="92"/>
     </row>
-    <row r="124" spans="2:13">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B124" s="99"/>
       <c r="C124" s="92"/>
       <c r="D124" s="92"/>
@@ -6758,7 +6645,7 @@
       <c r="L124" s="92"/>
       <c r="M124" s="92"/>
     </row>
-    <row r="125" spans="2:13">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B125" s="99"/>
       <c r="C125" s="92"/>
       <c r="D125" s="92"/>
@@ -6772,7 +6659,7 @@
       <c r="L125" s="92"/>
       <c r="M125" s="92"/>
     </row>
-    <row r="126" spans="2:13">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B126" s="99"/>
       <c r="C126" s="92" t="s">
         <v>83</v>
@@ -6788,10 +6675,10 @@
       <c r="L126" s="92"/>
       <c r="M126" s="92"/>
     </row>
-    <row r="127" spans="2:13">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B127" s="99"/>
       <c r="C127" s="92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D127" s="92"/>
       <c r="E127" s="92"/>
@@ -6804,7 +6691,7 @@
       <c r="L127" s="92"/>
       <c r="M127" s="92"/>
     </row>
-    <row r="128" spans="2:13">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B128" s="99"/>
       <c r="C128" s="92"/>
       <c r="D128" s="92"/>
@@ -6818,7 +6705,7 @@
       <c r="L128" s="92"/>
       <c r="M128" s="92"/>
     </row>
-    <row r="129" spans="2:13">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B129" s="99"/>
       <c r="C129" s="92"/>
       <c r="D129" s="92"/>
@@ -6832,7 +6719,7 @@
       <c r="L129" s="92"/>
       <c r="M129" s="92"/>
     </row>
-    <row r="130" spans="2:13">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B130" s="99"/>
       <c r="C130" s="92"/>
       <c r="D130" s="92"/>
@@ -6846,7 +6733,7 @@
       <c r="L130" s="92"/>
       <c r="M130" s="92"/>
     </row>
-    <row r="131" spans="2:13">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B131" s="99"/>
       <c r="C131" s="92"/>
       <c r="D131" s="92"/>
@@ -6860,7 +6747,7 @@
       <c r="L131" s="92"/>
       <c r="M131" s="92"/>
     </row>
-    <row r="132" spans="2:13">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B132" s="99"/>
       <c r="C132" s="92"/>
       <c r="D132" s="92"/>
@@ -6874,7 +6761,7 @@
       <c r="L132" s="92"/>
       <c r="M132" s="92"/>
     </row>
-    <row r="133" spans="2:13">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B133" s="99"/>
       <c r="C133" s="92"/>
       <c r="D133" s="92"/>
@@ -6888,7 +6775,7 @@
       <c r="L133" s="92"/>
       <c r="M133" s="92"/>
     </row>
-    <row r="134" spans="2:13">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B134" s="99"/>
       <c r="C134" s="92"/>
       <c r="D134" s="92"/>
@@ -6902,7 +6789,7 @@
       <c r="L134" s="92"/>
       <c r="M134" s="92"/>
     </row>
-    <row r="135" spans="2:13">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B135" s="99"/>
       <c r="C135" s="92"/>
       <c r="D135" s="92"/>
@@ -6916,7 +6803,7 @@
       <c r="L135" s="92"/>
       <c r="M135" s="92"/>
     </row>
-    <row r="136" spans="2:13">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B136" s="99"/>
       <c r="C136" s="92"/>
       <c r="D136" s="92"/>
@@ -6930,7 +6817,7 @@
       <c r="L136" s="92"/>
       <c r="M136" s="92"/>
     </row>
-    <row r="137" spans="2:13">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B137" s="99"/>
       <c r="C137" s="92"/>
       <c r="D137" s="92"/>
@@ -6944,14 +6831,14 @@
       <c r="L137" s="92"/>
       <c r="M137" s="92"/>
     </row>
-    <row r="138" spans="2:13">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B138" s="99"/>
       <c r="C138" s="92"/>
       <c r="D138" s="92">
         <v>3400</v>
       </c>
       <c r="E138" s="92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F138" s="92"/>
       <c r="G138" s="92"/>
@@ -6962,14 +6849,14 @@
       <c r="L138" s="92"/>
       <c r="M138" s="92"/>
     </row>
-    <row r="139" spans="2:13">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B139" s="99"/>
       <c r="C139" s="92"/>
       <c r="D139" s="92">
         <v>4500</v>
       </c>
       <c r="E139" s="92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F139" s="92"/>
       <c r="G139" s="92"/>
@@ -6980,17 +6867,17 @@
       <c r="L139" s="92"/>
       <c r="M139" s="92"/>
     </row>
-    <row r="140" spans="2:13">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B140" s="99"/>
       <c r="C140" s="92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D140" s="92">
         <f>AVERAGE(D138,D139)</f>
         <v>3950</v>
       </c>
       <c r="E140" s="92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F140" s="92"/>
       <c r="G140" s="92"/>
@@ -7001,7 +6888,7 @@
       <c r="L140" s="92"/>
       <c r="M140" s="92"/>
     </row>
-    <row r="141" spans="2:13">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B141" s="99"/>
       <c r="C141" s="92"/>
       <c r="D141" s="92"/>
@@ -7015,7 +6902,7 @@
       <c r="L141" s="92"/>
       <c r="M141" s="92"/>
     </row>
-    <row r="142" spans="2:13">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B142" s="99"/>
       <c r="C142" s="92"/>
       <c r="D142" s="92"/>
@@ -7029,10 +6916,10 @@
       <c r="L142" s="92"/>
       <c r="M142" s="92"/>
     </row>
-    <row r="143" spans="2:13">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B143" s="99"/>
       <c r="C143" s="92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D143" s="92"/>
       <c r="E143" s="92"/>
@@ -7045,7 +6932,7 @@
       <c r="L143" s="92"/>
       <c r="M143" s="92"/>
     </row>
-    <row r="144" spans="2:13">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B144" s="99"/>
       <c r="C144" s="92"/>
       <c r="D144" s="92"/>
@@ -7059,7 +6946,7 @@
       <c r="L144" s="92"/>
       <c r="M144" s="92"/>
     </row>
-    <row r="145" spans="2:13">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B145" s="99"/>
       <c r="C145" s="92"/>
       <c r="D145" s="92"/>
@@ -7073,7 +6960,7 @@
       <c r="L145" s="92"/>
       <c r="M145" s="92"/>
     </row>
-    <row r="146" spans="2:13">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B146" s="99"/>
       <c r="C146" s="92"/>
       <c r="D146" s="92"/>
@@ -7087,7 +6974,7 @@
       <c r="L146" s="92"/>
       <c r="M146" s="92"/>
     </row>
-    <row r="147" spans="2:13">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B147" s="99"/>
       <c r="C147" s="92"/>
       <c r="D147" s="92"/>
@@ -7101,7 +6988,7 @@
       <c r="L147" s="92"/>
       <c r="M147" s="92"/>
     </row>
-    <row r="148" spans="2:13">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B148" s="99"/>
       <c r="C148" s="92"/>
       <c r="D148" s="92"/>
@@ -7115,7 +7002,7 @@
       <c r="L148" s="92"/>
       <c r="M148" s="92"/>
     </row>
-    <row r="149" spans="2:13">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B149" s="99"/>
       <c r="C149" s="92"/>
       <c r="D149" s="92"/>
@@ -7129,7 +7016,7 @@
       <c r="L149" s="92"/>
       <c r="M149" s="92"/>
     </row>
-    <row r="150" spans="2:13">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B150" s="99"/>
       <c r="C150" s="92"/>
       <c r="D150" s="92"/>
@@ -7143,14 +7030,14 @@
       <c r="L150" s="92"/>
       <c r="M150" s="92"/>
     </row>
-    <row r="151" spans="2:13">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B151" s="99"/>
       <c r="C151" s="92"/>
       <c r="D151" s="92">
         <v>20</v>
       </c>
       <c r="E151" s="92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F151" s="92"/>
       <c r="G151" s="92"/>
@@ -7161,7 +7048,7 @@
       <c r="L151" s="92"/>
       <c r="M151" s="92"/>
     </row>
-    <row r="152" spans="2:13">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B152" s="99"/>
       <c r="C152" s="92"/>
       <c r="D152" s="92"/>
@@ -7175,7 +7062,7 @@
       <c r="L152" s="92"/>
       <c r="M152" s="92"/>
     </row>
-    <row r="153" spans="2:13">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B153" s="99"/>
       <c r="C153" s="92"/>
       <c r="D153" s="92"/>
@@ -7189,7 +7076,7 @@
       <c r="L153" s="92"/>
       <c r="M153" s="92"/>
     </row>
-    <row r="154" spans="2:13">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B154" s="99"/>
       <c r="C154" s="92"/>
       <c r="D154" s="92"/>
@@ -7203,7 +7090,7 @@
       <c r="L154" s="92"/>
       <c r="M154" s="92"/>
     </row>
-    <row r="155" spans="2:13">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B155" s="99"/>
       <c r="C155" s="92" t="s">
         <v>87</v>
@@ -7219,10 +7106,10 @@
       <c r="L155" s="92"/>
       <c r="M155" s="92"/>
     </row>
-    <row r="156" spans="2:13">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B156" s="99"/>
       <c r="C156" s="92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D156" s="92"/>
       <c r="E156" s="92"/>
@@ -7235,7 +7122,7 @@
       <c r="L156" s="92"/>
       <c r="M156" s="92"/>
     </row>
-    <row r="157" spans="2:13">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B157" s="99"/>
       <c r="C157" s="92"/>
       <c r="D157" s="92"/>
@@ -7249,7 +7136,7 @@
       <c r="L157" s="92"/>
       <c r="M157" s="92"/>
     </row>
-    <row r="158" spans="2:13">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B158" s="99"/>
       <c r="C158" s="92"/>
       <c r="D158" s="92"/>
@@ -7263,7 +7150,7 @@
       <c r="L158" s="92"/>
       <c r="M158" s="92"/>
     </row>
-    <row r="159" spans="2:13">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B159" s="99"/>
       <c r="C159" s="92"/>
       <c r="D159" s="92"/>
@@ -7277,7 +7164,7 @@
       <c r="L159" s="92"/>
       <c r="M159" s="92"/>
     </row>
-    <row r="160" spans="2:13">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B160" s="99"/>
       <c r="C160" s="92"/>
       <c r="D160" s="92"/>
@@ -7291,7 +7178,7 @@
       <c r="L160" s="92"/>
       <c r="M160" s="92"/>
     </row>
-    <row r="161" spans="2:13">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B161" s="99"/>
       <c r="C161" s="92"/>
       <c r="D161" s="92"/>
@@ -7305,7 +7192,7 @@
       <c r="L161" s="92"/>
       <c r="M161" s="92"/>
     </row>
-    <row r="162" spans="2:13">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B162" s="99"/>
       <c r="C162" s="92"/>
       <c r="D162" s="92"/>
@@ -7319,7 +7206,7 @@
       <c r="L162" s="92"/>
       <c r="M162" s="92"/>
     </row>
-    <row r="163" spans="2:13">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B163" s="99"/>
       <c r="C163" s="92"/>
       <c r="D163" s="92"/>
@@ -7333,14 +7220,14 @@
       <c r="L163" s="92"/>
       <c r="M163" s="92"/>
     </row>
-    <row r="164" spans="2:13">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B164" s="99"/>
       <c r="C164" s="92"/>
       <c r="D164" s="92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E164" s="92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F164" s="92"/>
       <c r="G164" s="92"/>
@@ -7351,17 +7238,17 @@
       <c r="L164" s="92"/>
       <c r="M164" s="92"/>
     </row>
-    <row r="165" spans="2:13">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B165" s="99"/>
       <c r="C165" s="130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D165" s="92">
         <f>(4290+6080)/2</f>
         <v>5185</v>
       </c>
       <c r="E165" s="130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F165" s="92"/>
       <c r="G165" s="92"/>
@@ -7372,14 +7259,14 @@
       <c r="L165" s="92"/>
       <c r="M165" s="92"/>
     </row>
-    <row r="166" spans="2:13">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B166" s="99"/>
       <c r="C166" s="92"/>
       <c r="D166" s="92">
         <v>4218</v>
       </c>
       <c r="E166" s="130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F166" s="92"/>
       <c r="G166" s="92"/>
@@ -7390,14 +7277,14 @@
       <c r="L166" s="92"/>
       <c r="M166" s="92"/>
     </row>
-    <row r="167" spans="2:13">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B167" s="99"/>
       <c r="C167" s="92"/>
       <c r="D167" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="E167" s="92" t="s">
         <v>157</v>
-      </c>
-      <c r="E167" s="92" t="s">
-        <v>158</v>
       </c>
       <c r="F167" s="92"/>
       <c r="G167" s="92"/>
@@ -7408,16 +7295,16 @@
       <c r="L167" s="92"/>
       <c r="M167" s="92"/>
     </row>
-    <row r="168" spans="2:13">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B168" s="99"/>
       <c r="C168" s="130" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D168" s="92">
         <v>130</v>
       </c>
       <c r="E168" s="92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F168" s="92"/>
       <c r="G168" s="92"/>
@@ -7428,14 +7315,14 @@
       <c r="L168" s="92"/>
       <c r="M168" s="92"/>
     </row>
-    <row r="169" spans="2:13">
+    <row r="169" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B169" s="99"/>
       <c r="C169" s="92"/>
       <c r="D169" s="92">
         <v>101</v>
       </c>
       <c r="E169" s="92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F169" s="92"/>
       <c r="G169" s="92"/>
@@ -7446,7 +7333,7 @@
       <c r="L169" s="92"/>
       <c r="M169" s="92"/>
     </row>
-    <row r="170" spans="2:13">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B170" s="99"/>
       <c r="C170" s="92"/>
       <c r="D170" s="92"/>
@@ -7460,7 +7347,7 @@
       <c r="L170" s="92"/>
       <c r="M170" s="92"/>
     </row>
-    <row r="171" spans="2:13">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B171" s="99"/>
       <c r="C171" s="92"/>
       <c r="D171" s="92"/>
@@ -7474,7 +7361,7 @@
       <c r="L171" s="92"/>
       <c r="M171" s="92"/>
     </row>
-    <row r="172" spans="2:13">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B172" s="99"/>
       <c r="C172" s="92"/>
       <c r="D172" s="92"/>
@@ -7488,7 +7375,7 @@
       <c r="L172" s="92"/>
       <c r="M172" s="92"/>
     </row>
-    <row r="173" spans="2:13">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B173" s="99"/>
       <c r="C173" s="92"/>
       <c r="D173" s="92"/>
@@ -7502,7 +7389,7 @@
       <c r="L173" s="92"/>
       <c r="M173" s="92"/>
     </row>
-    <row r="174" spans="2:13">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B174" s="99"/>
       <c r="C174" s="92" t="s">
         <v>85</v>
@@ -7518,10 +7405,10 @@
       <c r="L174" s="92"/>
       <c r="M174" s="92"/>
     </row>
-    <row r="175" spans="2:13">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B175" s="99"/>
       <c r="C175" s="92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D175" s="92"/>
       <c r="E175" s="92"/>
@@ -7534,7 +7421,7 @@
       <c r="L175" s="92"/>
       <c r="M175" s="92"/>
     </row>
-    <row r="176" spans="2:13">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B176" s="99"/>
       <c r="C176" s="92"/>
       <c r="D176" s="92"/>
@@ -7548,7 +7435,7 @@
       <c r="L176" s="92"/>
       <c r="M176" s="92"/>
     </row>
-    <row r="177" spans="2:13">
+    <row r="177" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B177" s="99"/>
       <c r="C177" s="92"/>
       <c r="D177" s="92"/>
@@ -7562,7 +7449,7 @@
       <c r="L177" s="92"/>
       <c r="M177" s="92"/>
     </row>
-    <row r="178" spans="2:13">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B178" s="99"/>
       <c r="C178" s="92"/>
       <c r="D178" s="92"/>
@@ -7576,14 +7463,14 @@
       <c r="L178" s="92"/>
       <c r="M178" s="92"/>
     </row>
-    <row r="179" spans="2:13">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B179" s="99"/>
       <c r="C179" s="92"/>
       <c r="D179" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="E179" s="92" t="s">
         <v>166</v>
-      </c>
-      <c r="E179" s="92" t="s">
-        <v>167</v>
       </c>
       <c r="F179" s="92"/>
       <c r="G179" s="92"/>
@@ -7594,16 +7481,16 @@
       <c r="L179" s="92"/>
       <c r="M179" s="92"/>
     </row>
-    <row r="180" spans="2:13">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B180" s="99"/>
       <c r="C180" s="92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D180" s="92">
         <v>700</v>
       </c>
       <c r="E180" s="92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F180" s="92"/>
       <c r="G180" s="92"/>
@@ -7614,7 +7501,7 @@
       <c r="L180" s="92"/>
       <c r="M180" s="92"/>
     </row>
-    <row r="181" spans="2:13">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B181" s="99"/>
       <c r="C181" s="92"/>
       <c r="D181" s="92"/>
@@ -7628,7 +7515,7 @@
       <c r="L181" s="92"/>
       <c r="M181" s="92"/>
     </row>
-    <row r="182" spans="2:13">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B182" s="99"/>
       <c r="C182" s="92"/>
       <c r="D182" s="92"/>
@@ -7642,7 +7529,7 @@
       <c r="L182" s="92"/>
       <c r="M182" s="92"/>
     </row>
-    <row r="183" spans="2:13">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B183" s="99"/>
       <c r="C183" s="92"/>
       <c r="D183" s="92"/>
@@ -7656,7 +7543,7 @@
       <c r="L183" s="92"/>
       <c r="M183" s="92"/>
     </row>
-    <row r="184" spans="2:13">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B184" s="99"/>
       <c r="C184" s="92"/>
       <c r="D184" s="92"/>
@@ -7674,10 +7561,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_wind_turbine_offshore.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_wind_turbine_offshore.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3B08D5-0883-EF49-BDF1-8D70E3CA0282}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E39422-E355-B046-9044-100B6E15BF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="179">
   <si>
     <t>Source</t>
   </si>
@@ -693,6 +699,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1425,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1664,6 +1673,7 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="250">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2861,12 +2871,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1">
@@ -3040,23 +3050,23 @@
   </sheetPr>
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="35" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3528,15 +3538,15 @@
         <v>2</v>
       </c>
       <c r="E29" s="41">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="34" t="s">
-        <v>65</v>
+      <c r="I29" s="143" t="s">
+        <v>178</v>
       </c>
       <c r="J29" s="82"/>
     </row>
@@ -3794,30 +3804,30 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="90" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="90" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="90" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="90" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="90" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="90" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="90" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="90" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="90" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="90" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="90" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="90" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="90" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="90" customWidth="1"/>
     <col min="8" max="8" width="3" style="90" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="90" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="90" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="90" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="90" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="90" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="90" customWidth="1"/>
     <col min="12" max="12" width="2" style="90" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" style="90" customWidth="1"/>
-    <col min="14" max="14" width="2.5" style="90" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="90" customWidth="1"/>
-    <col min="16" max="16" width="3.5" style="90" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="90" customWidth="1"/>
-    <col min="18" max="18" width="2.83203125" style="90" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" style="90" customWidth="1"/>
-    <col min="20" max="20" width="2.83203125" style="90" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="90" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" style="90" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="90" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" style="90" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="90" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="90" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="90" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" style="90" customWidth="1"/>
     <col min="21" max="21" width="58" style="90" customWidth="1"/>
-    <col min="22" max="16384" width="10.6640625" style="90"/>
+    <col min="22" max="16384" width="10.7109375" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1"/>
@@ -4014,7 +4024,7 @@
       </c>
       <c r="U10" s="103"/>
     </row>
-    <row r="11" spans="2:21" ht="17" thickBot="1">
+    <row r="11" spans="2:21" ht="18" thickBot="1">
       <c r="B11" s="96"/>
       <c r="C11" s="92" t="s">
         <v>5</v>
@@ -4049,7 +4059,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="17" thickBot="1">
+    <row r="12" spans="2:21" ht="18" thickBot="1">
       <c r="B12" s="96"/>
       <c r="C12" s="110" t="s">
         <v>88</v>
@@ -4362,18 +4372,18 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="55" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="55" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" style="55" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="75" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="55" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="55" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="55" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="55" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="75" customWidth="1"/>
     <col min="9" max="9" width="33" style="75" customWidth="1"/>
-    <col min="10" max="10" width="103.5" style="55" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="55"/>
+    <col min="10" max="10" width="103.42578125" style="55" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -4775,11 +4785,11 @@
       <selection activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="90" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="90" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="90"/>
+    <col min="1" max="1" width="5.42578125" style="90" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="90" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1"/>
